--- a/public/downloads/Císařka 3-2025.xlsx
+++ b/public/downloads/Císařka 3-2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="2120" windowWidth="26610" windowHeight="16920"/>
+    <workbookView xWindow="4450" yWindow="1750" windowWidth="32380" windowHeight="15240"/>
   </bookViews>
   <sheets>
     <sheet sheetId="1" name="List1" state="visible" r:id="rId4"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="110">
   <si>
     <t>Název:</t>
   </si>
@@ -41,6 +41,9 @@
     <t>Fakturace</t>
   </si>
   <si>
+    <t>Skutečnost</t>
+  </si>
+  <si>
     <t>Příjmení a jméno</t>
   </si>
   <si>
@@ -291,6 +294,60 @@
   </si>
   <si>
     <t>15.03.2025 18:51:02</t>
+  </si>
+  <si>
+    <t>16.03.2025 06:45:49</t>
+  </si>
+  <si>
+    <t>16.03.2025 06:52:10</t>
+  </si>
+  <si>
+    <t>16.03.2025 18:51:36</t>
+  </si>
+  <si>
+    <t>16.03.2025 18:58:24</t>
+  </si>
+  <si>
+    <t>17.03.2025 06:52:38</t>
+  </si>
+  <si>
+    <t>17.03.2025 06:53:05</t>
+  </si>
+  <si>
+    <t>17.03.2025 18:46:14</t>
+  </si>
+  <si>
+    <t>17.03.2025 18:55:57</t>
+  </si>
+  <si>
+    <t>18.03.2025 06:58:01</t>
+  </si>
+  <si>
+    <t>18.03.2025 07:03:20</t>
+  </si>
+  <si>
+    <t>18.03.2025 18:55:07</t>
+  </si>
+  <si>
+    <t>18.03.2025 18:58:44</t>
+  </si>
+  <si>
+    <t>19.03.2025 06:53:47</t>
+  </si>
+  <si>
+    <t>19.03.2025 06:54:06</t>
+  </si>
+  <si>
+    <t>19.03.2025 18:49:28</t>
+  </si>
+  <si>
+    <t>19.03.2025 18:50:07</t>
+  </si>
+  <si>
+    <t>20.03.2025 06:50:36</t>
+  </si>
+  <si>
+    <t>20.03.2025 07:34:37</t>
   </si>
 </sst>
 </file>
@@ -400,7 +457,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -421,6 +478,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -714,10 +774,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:U108"/>
+  <dimension ref="B1:Z108"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="B66" sqref="B66"/>
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.35" customHeight="1"/>
@@ -736,7 +796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="16.5" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" ht="16.5" customHeight="1" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -747,7 +807,7 @@
         <v>45746</v>
       </c>
     </row>
-    <row r="3" ht="32.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="3" ht="32.5" customHeight="1" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
@@ -776,80 +836,100 @@
       </c>
       <c r="T3" s="6"/>
       <c r="U3" s="6"/>
-    </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="W3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z3" s="6"/>
+    </row>
+    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="O4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="O4" s="8" t="s">
+      <c r="P4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="8" t="s">
-        <v>9</v>
-      </c>
       <c r="Q4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="8" t="s">
+      <c r="T4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="S4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="T4" s="8" t="s">
+      <c r="U4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="W4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="8" t="s">
+      <c r="X4" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="Y4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z4" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" ht="18.5" customHeight="1" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="9">
+        <v>20</v>
+      </c>
+      <c r="C5" s="10">
         <v>45717</v>
       </c>
-      <c r="D5" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="E5" s="10">
+      <c r="D5" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="E5" s="11">
         <v>0.7916666666678793</v>
       </c>
       <c r="F5" s="7">
@@ -871,13 +951,13 @@
         <v>1560</v>
       </c>
       <c r="M5" s="7"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="11">
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="12">
         <f>IFERROR(MROUND(N5,"0:30"),"0:00")</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="Q5" s="12">
         <f>IFERROR(MROUND(O5,"0:30"),"0:00")</f>
         <v>0</v>
       </c>
@@ -885,28 +965,44 @@
         <f>IF(AND(OR(N5=O5,N5&gt;O5),(N5&gt;0)),24-MROUND((((N5*1440)-(O5*1440)))/60,0.5),MROUND(((O5*1440)-(N5*1440))/60,0.5))</f>
         <v>0</v>
       </c>
-      <c r="S5" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="T5" s="10">
+      <c r="S5" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="T5" s="11">
         <v>0.7916666666678793</v>
       </c>
       <c r="U5" s="7">
         <f>IF(AND(OR(S5=T5,S5&gt;T5),(S5&gt;0)),24-MROUND((((S5*1440)-(T5*1440)))/60,0.5),MROUND(((T5*1440)-(S5*1440))/60,0.5))</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="6" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="W5" s="9" t="str">
+        <f>IF(P5&lt;&gt;D5,"Chyba","ok")</f>
+        <v>Chyba</v>
+      </c>
+      <c r="X5" s="9" t="str">
+        <f>IF(Q5&lt;&gt;E5,"Chyba","ok")</f>
+        <v>Chyba</v>
+      </c>
+      <c r="Y5" s="9" t="str">
+        <f>IF(S5&lt;&gt;D5,"Chyba","ok")</f>
+        <v>ok</v>
+      </c>
+      <c r="Z5" s="9" t="str">
+        <f>IF(T5&lt;&gt;E5,"Chyba","ok")</f>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="6" ht="18.5" customHeight="1" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="9">
+        <v>21</v>
+      </c>
+      <c r="C6" s="10">
         <v>45717</v>
       </c>
-      <c r="D6" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="E6" s="10">
+      <c r="D6" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="E6" s="11">
         <v>0.2916666666678793</v>
       </c>
       <c r="F6" s="7">
@@ -928,13 +1024,13 @@
         <v>1560</v>
       </c>
       <c r="M6" s="7"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="11">
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="12">
         <f t="shared" ref="P6:P43" si="3">IFERROR(MROUND(N6,"0:30"),"0:00")</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="Q6" s="12">
         <f t="shared" ref="Q6:Q43" si="4">IFERROR(MROUND(O6,"0:30"),"0:00")</f>
         <v>0</v>
       </c>
@@ -942,28 +1038,44 @@
         <f t="shared" ref="R6:R43" si="5">IF(AND(OR(N6=O6,N6&gt;O6),(N6&gt;0)),24-MROUND((((N6*1440)-(O6*1440)))/60,0.5),MROUND(((O6*1440)-(N6*1440))/60,0.5))</f>
         <v>0</v>
       </c>
-      <c r="S6" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="T6" s="10">
+      <c r="S6" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="T6" s="11">
         <v>0.2916666666678793</v>
       </c>
       <c r="U6" s="7">
         <f t="shared" ref="U6:U43" si="6">IF(AND(OR(S6=T6,S6&gt;T6),(S6&gt;0)),24-MROUND((((S6*1440)-(T6*1440)))/60,0.5),MROUND(((T6*1440)-(S6*1440))/60,0.5))</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="7" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="W6" s="9" t="str">
+        <f t="shared" ref="W6:W66" si="7">IF(P6&lt;&gt;D6,"Chyba","ok")</f>
+        <v>Chyba</v>
+      </c>
+      <c r="X6" s="9" t="str">
+        <f t="shared" ref="X6:X66" si="8">IF(Q6&lt;&gt;E6,"Chyba","ok")</f>
+        <v>Chyba</v>
+      </c>
+      <c r="Y6" s="9" t="str">
+        <f t="shared" ref="Y6:Y66" si="9">IF(S6&lt;&gt;D6,"Chyba","ok")</f>
+        <v>ok</v>
+      </c>
+      <c r="Z6" s="9" t="str">
+        <f t="shared" ref="Z6:Z66" si="10">IF(T6&lt;&gt;E6,"Chyba","ok")</f>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="7" ht="18.5" customHeight="1" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="9">
+        <v>20</v>
+      </c>
+      <c r="C7" s="10">
         <v>45718</v>
       </c>
-      <c r="D7" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="E7" s="10">
+      <c r="D7" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="E7" s="11">
         <v>0.7916666666678793</v>
       </c>
       <c r="F7" s="7">
@@ -985,13 +1097,13 @@
         <v>1560</v>
       </c>
       <c r="M7" s="7"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="11">
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="Q7" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -999,28 +1111,44 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S7" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="T7" s="10">
+      <c r="S7" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="T7" s="11">
         <v>0.7916666666678793</v>
       </c>
       <c r="U7" s="7">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="8" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="W7" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Chyba</v>
+      </c>
+      <c r="X7" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>Chyba</v>
+      </c>
+      <c r="Y7" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>ok</v>
+      </c>
+      <c r="Z7" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="8" ht="18.5" customHeight="1" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="9">
+        <v>22</v>
+      </c>
+      <c r="C8" s="10">
         <v>45718</v>
       </c>
-      <c r="D8" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="E8" s="10">
+      <c r="D8" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="E8" s="11">
         <v>0.2916666666678793</v>
       </c>
       <c r="F8" s="7">
@@ -1042,13 +1170,13 @@
         <v>1560</v>
       </c>
       <c r="M8" s="7"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="11">
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q8" s="11">
+      <c r="Q8" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1056,28 +1184,44 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S8" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="T8" s="10">
+      <c r="S8" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="T8" s="11">
         <v>0.2916666666678793</v>
       </c>
       <c r="U8" s="7">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="9" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="W8" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Chyba</v>
+      </c>
+      <c r="X8" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>Chyba</v>
+      </c>
+      <c r="Y8" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>ok</v>
+      </c>
+      <c r="Z8" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="9" ht="18.5" customHeight="1" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="9">
+        <v>23</v>
+      </c>
+      <c r="C9" s="10">
         <v>45719</v>
       </c>
-      <c r="D9" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="E9" s="10">
+      <c r="D9" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="E9" s="11">
         <v>0.7916666666678793</v>
       </c>
       <c r="F9" s="7">
@@ -1099,13 +1243,13 @@
         <v>1560</v>
       </c>
       <c r="M9" s="7"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="11">
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="11">
+      <c r="Q9" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1113,28 +1257,44 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S9" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="T9" s="10">
+      <c r="S9" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="T9" s="11">
         <v>0.7916666666678793</v>
       </c>
       <c r="U9" s="7">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="10" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="W9" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Chyba</v>
+      </c>
+      <c r="X9" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>Chyba</v>
+      </c>
+      <c r="Y9" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>ok</v>
+      </c>
+      <c r="Z9" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="10" ht="18.5" customHeight="1" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="9">
+        <v>21</v>
+      </c>
+      <c r="C10" s="10">
         <v>45719</v>
       </c>
-      <c r="D10" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="E10" s="10">
+      <c r="D10" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="E10" s="11">
         <v>0.2916666666678793</v>
       </c>
       <c r="F10" s="7">
@@ -1156,13 +1316,13 @@
         <v>1560</v>
       </c>
       <c r="M10" s="7"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="11">
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q10" s="11">
+      <c r="Q10" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1170,28 +1330,44 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S10" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="T10" s="10">
+      <c r="S10" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="T10" s="11">
         <v>0.2916666666678793</v>
       </c>
       <c r="U10" s="7">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="11" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="W10" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Chyba</v>
+      </c>
+      <c r="X10" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>Chyba</v>
+      </c>
+      <c r="Y10" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>ok</v>
+      </c>
+      <c r="Z10" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="11" ht="18.5" customHeight="1" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="9">
+        <v>20</v>
+      </c>
+      <c r="C11" s="10">
         <v>45720</v>
       </c>
-      <c r="D11" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="E11" s="10">
+      <c r="D11" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="E11" s="11">
         <v>0.7916666666678793</v>
       </c>
       <c r="F11" s="7">
@@ -1213,13 +1389,13 @@
         <v>1560</v>
       </c>
       <c r="M11" s="7"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="11">
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="11">
+      <c r="Q11" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1227,28 +1403,44 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S11" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="T11" s="10">
+      <c r="S11" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="T11" s="11">
         <v>0.7916666666678793</v>
       </c>
       <c r="U11" s="7">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="12" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="W11" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Chyba</v>
+      </c>
+      <c r="X11" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>Chyba</v>
+      </c>
+      <c r="Y11" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>ok</v>
+      </c>
+      <c r="Z11" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="12" ht="18.5" customHeight="1" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="9">
+        <v>22</v>
+      </c>
+      <c r="C12" s="10">
         <v>45720</v>
       </c>
-      <c r="D12" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="E12" s="10">
+      <c r="D12" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="E12" s="11">
         <v>0.2916666666678793</v>
       </c>
       <c r="F12" s="7">
@@ -1270,13 +1462,13 @@
         <v>1560</v>
       </c>
       <c r="M12" s="7"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="11">
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="11">
+      <c r="Q12" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1284,28 +1476,44 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S12" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="T12" s="10">
+      <c r="S12" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="T12" s="11">
         <v>0.2916666666678793</v>
       </c>
       <c r="U12" s="7">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="13" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="W12" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Chyba</v>
+      </c>
+      <c r="X12" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>Chyba</v>
+      </c>
+      <c r="Y12" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>ok</v>
+      </c>
+      <c r="Z12" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="13" ht="18.5" customHeight="1" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="9">
+        <v>20</v>
+      </c>
+      <c r="C13" s="10">
         <v>45721</v>
       </c>
-      <c r="D13" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="E13" s="10">
+      <c r="D13" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="E13" s="11">
         <v>0.7916666666678793</v>
       </c>
       <c r="F13" s="7">
@@ -1327,13 +1535,13 @@
         <v>1560</v>
       </c>
       <c r="M13" s="7"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="11">
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="11">
+      <c r="Q13" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1341,28 +1549,44 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S13" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="T13" s="10">
+      <c r="S13" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="T13" s="11">
         <v>0.7916666666678793</v>
       </c>
       <c r="U13" s="7">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="14" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="W13" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Chyba</v>
+      </c>
+      <c r="X13" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>Chyba</v>
+      </c>
+      <c r="Y13" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>ok</v>
+      </c>
+      <c r="Z13" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="14" ht="18.5" customHeight="1" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="9">
+        <v>22</v>
+      </c>
+      <c r="C14" s="10">
         <v>45721</v>
       </c>
-      <c r="D14" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="E14" s="10">
+      <c r="D14" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="E14" s="11">
         <v>0.2916666666678793</v>
       </c>
       <c r="F14" s="7">
@@ -1384,13 +1608,13 @@
         <v>1560</v>
       </c>
       <c r="M14" s="7"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="11">
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="11">
+      <c r="Q14" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1398,28 +1622,44 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S14" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="T14" s="10">
+      <c r="S14" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="T14" s="11">
         <v>0.2916666666678793</v>
       </c>
       <c r="U14" s="7">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="15" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="W14" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Chyba</v>
+      </c>
+      <c r="X14" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>Chyba</v>
+      </c>
+      <c r="Y14" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>ok</v>
+      </c>
+      <c r="Z14" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="15" ht="18.5" customHeight="1" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="9">
+        <v>23</v>
+      </c>
+      <c r="C15" s="10">
         <v>45722</v>
       </c>
-      <c r="D15" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="E15" s="10">
+      <c r="D15" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="E15" s="11">
         <v>0.7916666666678793</v>
       </c>
       <c r="F15" s="7">
@@ -1441,13 +1681,13 @@
         <v>1560</v>
       </c>
       <c r="M15" s="7"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="11">
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="11">
+      <c r="Q15" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1455,28 +1695,44 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S15" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="T15" s="10">
+      <c r="S15" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="T15" s="11">
         <v>0.7916666666678793</v>
       </c>
       <c r="U15" s="7">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="16" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="W15" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Chyba</v>
+      </c>
+      <c r="X15" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>Chyba</v>
+      </c>
+      <c r="Y15" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>ok</v>
+      </c>
+      <c r="Z15" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="16" ht="18.5" customHeight="1" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="9">
+        <v>24</v>
+      </c>
+      <c r="C16" s="10">
         <v>45722</v>
       </c>
-      <c r="D16" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="E16" s="10">
+      <c r="D16" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="E16" s="11">
         <v>0.2916666666678793</v>
       </c>
       <c r="F16" s="7">
@@ -1498,13 +1754,13 @@
         <v>1560</v>
       </c>
       <c r="M16" s="7"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="11">
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="11">
+      <c r="Q16" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1512,28 +1768,44 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S16" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="T16" s="10">
+      <c r="S16" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="T16" s="11">
         <v>0.2916666666678793</v>
       </c>
       <c r="U16" s="7">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="17" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="W16" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Chyba</v>
+      </c>
+      <c r="X16" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>Chyba</v>
+      </c>
+      <c r="Y16" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>ok</v>
+      </c>
+      <c r="Z16" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="17" ht="18.5" customHeight="1" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="9">
+        <v>20</v>
+      </c>
+      <c r="C17" s="10">
         <v>45723</v>
       </c>
-      <c r="D17" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="E17" s="10">
+      <c r="D17" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="E17" s="11">
         <v>0.7916666666678793</v>
       </c>
       <c r="F17" s="7">
@@ -1555,13 +1827,13 @@
         <v>1560</v>
       </c>
       <c r="M17" s="7"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="11">
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="11">
+      <c r="Q17" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1569,28 +1841,44 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S17" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="T17" s="10">
+      <c r="S17" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="T17" s="11">
         <v>0.7916666666678793</v>
       </c>
       <c r="U17" s="7">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="18" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="W17" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Chyba</v>
+      </c>
+      <c r="X17" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>Chyba</v>
+      </c>
+      <c r="Y17" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>ok</v>
+      </c>
+      <c r="Z17" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="18" ht="18.5" customHeight="1" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="9">
+        <v>24</v>
+      </c>
+      <c r="C18" s="10">
         <v>45723</v>
       </c>
-      <c r="D18" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="E18" s="10">
+      <c r="D18" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="E18" s="11">
         <v>0.2916666666678793</v>
       </c>
       <c r="F18" s="7">
@@ -1612,13 +1900,13 @@
         <v>1560</v>
       </c>
       <c r="M18" s="7"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="11">
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="11">
+      <c r="Q18" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1626,28 +1914,44 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S18" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="T18" s="10">
+      <c r="S18" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="T18" s="11">
         <v>0.2916666666678793</v>
       </c>
       <c r="U18" s="7">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="19" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="W18" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Chyba</v>
+      </c>
+      <c r="X18" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>Chyba</v>
+      </c>
+      <c r="Y18" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>ok</v>
+      </c>
+      <c r="Z18" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="19" ht="18.5" customHeight="1" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="9">
+        <v>20</v>
+      </c>
+      <c r="C19" s="10">
         <v>45724</v>
       </c>
-      <c r="D19" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="E19" s="10">
+      <c r="D19" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="E19" s="11">
         <v>0.7916666666678793</v>
       </c>
       <c r="F19" s="7">
@@ -1669,13 +1973,13 @@
         <v>1560</v>
       </c>
       <c r="M19" s="7"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="11">
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="11">
+      <c r="Q19" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1683,28 +1987,44 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S19" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="T19" s="10">
+      <c r="S19" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="T19" s="11">
         <v>0.7916666666678793</v>
       </c>
       <c r="U19" s="7">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="20" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="W19" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Chyba</v>
+      </c>
+      <c r="X19" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>Chyba</v>
+      </c>
+      <c r="Y19" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>ok</v>
+      </c>
+      <c r="Z19" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="20" ht="18.5" customHeight="1" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="9">
+        <v>25</v>
+      </c>
+      <c r="C20" s="10">
         <v>45724</v>
       </c>
-      <c r="D20" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="E20" s="10">
+      <c r="D20" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="E20" s="11">
         <v>0.2916666666678793</v>
       </c>
       <c r="F20" s="7">
@@ -1726,13 +2046,13 @@
         <v>1560</v>
       </c>
       <c r="M20" s="7"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="11">
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="11">
+      <c r="Q20" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1740,28 +2060,44 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S20" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="T20" s="10">
+      <c r="S20" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="T20" s="11">
         <v>0.2916666666678793</v>
       </c>
       <c r="U20" s="7">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="21" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="W20" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Chyba</v>
+      </c>
+      <c r="X20" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>Chyba</v>
+      </c>
+      <c r="Y20" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>ok</v>
+      </c>
+      <c r="Z20" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="21" ht="18.5" customHeight="1" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="9">
+        <v>20</v>
+      </c>
+      <c r="C21" s="10">
         <v>45725</v>
       </c>
-      <c r="D21" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="E21" s="10">
+      <c r="D21" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="E21" s="11">
         <v>0.7916666666678793</v>
       </c>
       <c r="F21" s="7">
@@ -1783,13 +2119,13 @@
         <v>1560</v>
       </c>
       <c r="M21" s="7"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="11">
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="11">
+      <c r="Q21" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1797,28 +2133,44 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S21" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="T21" s="10">
+      <c r="S21" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="T21" s="11">
         <v>0.7916666666678793</v>
       </c>
       <c r="U21" s="7">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="22" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="W21" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Chyba</v>
+      </c>
+      <c r="X21" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>Chyba</v>
+      </c>
+      <c r="Y21" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>ok</v>
+      </c>
+      <c r="Z21" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="22" ht="18.5" customHeight="1" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="9">
+        <v>22</v>
+      </c>
+      <c r="C22" s="10">
         <v>45725</v>
       </c>
-      <c r="D22" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="E22" s="10">
+      <c r="D22" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="E22" s="11">
         <v>0.2916666666678793</v>
       </c>
       <c r="F22" s="7">
@@ -1840,13 +2192,13 @@
         <v>1560</v>
       </c>
       <c r="M22" s="7"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="11">
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q22" s="11">
+      <c r="Q22" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1854,28 +2206,44 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S22" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="T22" s="10">
+      <c r="S22" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="T22" s="11">
         <v>0.2916666666678793</v>
       </c>
       <c r="U22" s="7">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="23" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="W22" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Chyba</v>
+      </c>
+      <c r="X22" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>Chyba</v>
+      </c>
+      <c r="Y22" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>ok</v>
+      </c>
+      <c r="Z22" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="23" ht="18.5" customHeight="1" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="9">
+        <v>23</v>
+      </c>
+      <c r="C23" s="10">
         <v>45726</v>
       </c>
-      <c r="D23" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="E23" s="10">
+      <c r="D23" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="E23" s="11">
         <v>0.7916666666678793</v>
       </c>
       <c r="F23" s="7">
@@ -1897,13 +2265,13 @@
         <v>1560</v>
       </c>
       <c r="M23" s="7"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="11">
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q23" s="11">
+      <c r="Q23" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1911,28 +2279,44 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S23" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="T23" s="10">
+      <c r="S23" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="T23" s="11">
         <v>0.7916666666678793</v>
       </c>
       <c r="U23" s="7">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="24" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="W23" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Chyba</v>
+      </c>
+      <c r="X23" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>Chyba</v>
+      </c>
+      <c r="Y23" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>ok</v>
+      </c>
+      <c r="Z23" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="24" ht="18.5" customHeight="1" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="9">
+        <v>25</v>
+      </c>
+      <c r="C24" s="10">
         <v>45726</v>
       </c>
-      <c r="D24" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="E24" s="10">
+      <c r="D24" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="E24" s="11">
         <v>0.2916666666678793</v>
       </c>
       <c r="F24" s="7">
@@ -1954,13 +2338,13 @@
         <v>1560</v>
       </c>
       <c r="M24" s="7"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="11">
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q24" s="11">
+      <c r="Q24" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1968,28 +2352,44 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S24" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="T24" s="10">
+      <c r="S24" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="T24" s="11">
         <v>0.2916666666678793</v>
       </c>
       <c r="U24" s="7">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="25" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="W24" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Chyba</v>
+      </c>
+      <c r="X24" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>Chyba</v>
+      </c>
+      <c r="Y24" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>ok</v>
+      </c>
+      <c r="Z24" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="25" ht="18.5" customHeight="1" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="9">
+        <v>23</v>
+      </c>
+      <c r="C25" s="10">
         <v>45727</v>
       </c>
-      <c r="D25" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="E25" s="10">
+      <c r="D25" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="E25" s="11">
         <v>0.7916666666678793</v>
       </c>
       <c r="F25" s="7">
@@ -2011,13 +2411,13 @@
         <v>1560</v>
       </c>
       <c r="M25" s="7"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="11">
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="11">
+      <c r="Q25" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -2025,28 +2425,44 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S25" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="T25" s="10">
+      <c r="S25" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="T25" s="11">
         <v>0.7916666666678793</v>
       </c>
       <c r="U25" s="7">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="26" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="W25" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Chyba</v>
+      </c>
+      <c r="X25" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>Chyba</v>
+      </c>
+      <c r="Y25" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>ok</v>
+      </c>
+      <c r="Z25" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="26" ht="18.5" customHeight="1" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="9">
+        <v>22</v>
+      </c>
+      <c r="C26" s="10">
         <v>45727</v>
       </c>
-      <c r="D26" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="E26" s="10">
+      <c r="D26" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="E26" s="11">
         <v>0.2916666666678793</v>
       </c>
       <c r="F26" s="7">
@@ -2068,13 +2484,13 @@
         <v>1560</v>
       </c>
       <c r="M26" s="7"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="11">
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q26" s="11">
+      <c r="Q26" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -2082,28 +2498,44 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S26" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="T26" s="10">
+      <c r="S26" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="T26" s="11">
         <v>0.2916666666678793</v>
       </c>
       <c r="U26" s="7">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="27" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="W26" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Chyba</v>
+      </c>
+      <c r="X26" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>Chyba</v>
+      </c>
+      <c r="Y26" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>ok</v>
+      </c>
+      <c r="Z26" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="27" ht="18.5" customHeight="1" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="9">
+        <v>20</v>
+      </c>
+      <c r="C27" s="10">
         <v>45728</v>
       </c>
-      <c r="D27" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="E27" s="10">
+      <c r="D27" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="E27" s="11">
         <v>0.7916666666678793</v>
       </c>
       <c r="F27" s="7">
@@ -2125,13 +2557,13 @@
         <v>1560</v>
       </c>
       <c r="M27" s="7"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="11">
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q27" s="11">
+      <c r="Q27" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -2139,28 +2571,44 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S27" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="T27" s="10">
+      <c r="S27" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="T27" s="11">
         <v>0.7916666666678793</v>
       </c>
       <c r="U27" s="7">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="28" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="W27" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Chyba</v>
+      </c>
+      <c r="X27" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>Chyba</v>
+      </c>
+      <c r="Y27" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>ok</v>
+      </c>
+      <c r="Z27" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="28" ht="18.5" customHeight="1" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="9">
+        <v>25</v>
+      </c>
+      <c r="C28" s="10">
         <v>45728</v>
       </c>
-      <c r="D28" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="E28" s="10">
+      <c r="D28" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="E28" s="11">
         <v>0.2916666666678793</v>
       </c>
       <c r="F28" s="7">
@@ -2182,13 +2630,13 @@
         <v>1560</v>
       </c>
       <c r="M28" s="7"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="11">
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q28" s="11">
+      <c r="Q28" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -2196,28 +2644,44 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S28" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="T28" s="10">
+      <c r="S28" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="T28" s="11">
         <v>0.2916666666678793</v>
       </c>
       <c r="U28" s="7">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="29" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="W28" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Chyba</v>
+      </c>
+      <c r="X28" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>Chyba</v>
+      </c>
+      <c r="Y28" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>ok</v>
+      </c>
+      <c r="Z28" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="29" ht="18.5" customHeight="1" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="9">
+        <v>23</v>
+      </c>
+      <c r="C29" s="10">
         <v>45729</v>
       </c>
-      <c r="D29" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="E29" s="10">
+      <c r="D29" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="E29" s="11">
         <v>0.7916666666678793</v>
       </c>
       <c r="F29" s="7">
@@ -2239,13 +2703,13 @@
         <v>1560</v>
       </c>
       <c r="M29" s="7"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="11">
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q29" s="11">
+      <c r="Q29" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -2253,28 +2717,44 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S29" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="T29" s="10">
+      <c r="S29" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="T29" s="11">
         <v>0.7916666666678793</v>
       </c>
       <c r="U29" s="7">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="30" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="W29" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Chyba</v>
+      </c>
+      <c r="X29" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>Chyba</v>
+      </c>
+      <c r="Y29" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>ok</v>
+      </c>
+      <c r="Z29" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="30" ht="18.5" customHeight="1" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="9">
+        <v>22</v>
+      </c>
+      <c r="C30" s="10">
         <v>45729</v>
       </c>
-      <c r="D30" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="E30" s="10">
+      <c r="D30" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="E30" s="11">
         <v>0.2916666666678793</v>
       </c>
       <c r="F30" s="7">
@@ -2296,13 +2776,13 @@
         <v>1560</v>
       </c>
       <c r="M30" s="7"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="11">
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q30" s="11">
+      <c r="Q30" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -2310,28 +2790,44 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S30" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="T30" s="10">
+      <c r="S30" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="T30" s="11">
         <v>0.2916666666678793</v>
       </c>
       <c r="U30" s="7">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="31" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="W30" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Chyba</v>
+      </c>
+      <c r="X30" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>Chyba</v>
+      </c>
+      <c r="Y30" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>ok</v>
+      </c>
+      <c r="Z30" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="31" ht="18.5" customHeight="1" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="9">
+        <v>23</v>
+      </c>
+      <c r="C31" s="10">
         <v>45730</v>
       </c>
-      <c r="D31" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="E31" s="10">
+      <c r="D31" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="E31" s="11">
         <v>0.7916666666678793</v>
       </c>
       <c r="F31" s="7">
@@ -2353,13 +2849,13 @@
         <v>1560</v>
       </c>
       <c r="M31" s="7"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="11">
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q31" s="11">
+      <c r="Q31" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -2367,28 +2863,44 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S31" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="T31" s="10">
+      <c r="S31" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="T31" s="11">
         <v>0.7916666666678793</v>
       </c>
       <c r="U31" s="7">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="32" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="W31" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Chyba</v>
+      </c>
+      <c r="X31" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>Chyba</v>
+      </c>
+      <c r="Y31" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>ok</v>
+      </c>
+      <c r="Z31" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="32" ht="18.5" customHeight="1" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B32" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="9">
+        <v>25</v>
+      </c>
+      <c r="C32" s="10">
         <v>45730</v>
       </c>
-      <c r="D32" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="E32" s="10">
+      <c r="D32" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="E32" s="11">
         <v>0.2916666666678793</v>
       </c>
       <c r="F32" s="7">
@@ -2410,13 +2922,13 @@
         <v>1560</v>
       </c>
       <c r="M32" s="7"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="11">
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q32" s="11">
+      <c r="Q32" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -2424,28 +2936,44 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S32" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="T32" s="10">
+      <c r="S32" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="T32" s="11">
         <v>0.2916666666678793</v>
       </c>
       <c r="U32" s="7">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="33" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="W32" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Chyba</v>
+      </c>
+      <c r="X32" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>Chyba</v>
+      </c>
+      <c r="Y32" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>ok</v>
+      </c>
+      <c r="Z32" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="33" ht="18.5" customHeight="1" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="9">
+        <v>23</v>
+      </c>
+      <c r="C33" s="10">
         <v>45731</v>
       </c>
-      <c r="D33" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="E33" s="10">
+      <c r="D33" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="E33" s="11">
         <v>0.7916666666678793</v>
       </c>
       <c r="F33" s="7">
@@ -2467,13 +2995,13 @@
         <v>1560</v>
       </c>
       <c r="M33" s="7"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="11">
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q33" s="11">
+      <c r="Q33" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -2481,28 +3009,44 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S33" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="T33" s="10">
+      <c r="S33" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="T33" s="11">
         <v>0.7916666666678793</v>
       </c>
       <c r="U33" s="7">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="34" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="W33" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Chyba</v>
+      </c>
+      <c r="X33" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>Chyba</v>
+      </c>
+      <c r="Y33" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>ok</v>
+      </c>
+      <c r="Z33" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="34" ht="18.5" customHeight="1" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" s="9">
+        <v>24</v>
+      </c>
+      <c r="C34" s="10">
         <v>45731</v>
       </c>
-      <c r="D34" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="E34" s="10">
+      <c r="D34" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="E34" s="11">
         <v>0.2916666666678793</v>
       </c>
       <c r="F34" s="7">
@@ -2524,13 +3068,13 @@
         <v>1560</v>
       </c>
       <c r="M34" s="7"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="11">
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q34" s="11">
+      <c r="Q34" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -2538,28 +3082,44 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S34" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="T34" s="10">
+      <c r="S34" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="T34" s="11">
         <v>0.2916666666678793</v>
       </c>
       <c r="U34" s="7">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="35" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="W34" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Chyba</v>
+      </c>
+      <c r="X34" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>Chyba</v>
+      </c>
+      <c r="Y34" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>ok</v>
+      </c>
+      <c r="Z34" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="35" ht="18.5" customHeight="1" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="9">
+        <v>20</v>
+      </c>
+      <c r="C35" s="10">
         <v>45732</v>
       </c>
-      <c r="D35" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="E35" s="10">
+      <c r="D35" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="E35" s="11">
         <v>0.7916666666678793</v>
       </c>
       <c r="F35" s="7">
@@ -2581,13 +3141,13 @@
         <v>1560</v>
       </c>
       <c r="M35" s="7"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="11">
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q35" s="11">
+      <c r="Q35" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -2595,28 +3155,44 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S35" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="T35" s="10">
+      <c r="S35" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="T35" s="11">
         <v>0.7916666666678793</v>
       </c>
       <c r="U35" s="7">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="36" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="W35" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Chyba</v>
+      </c>
+      <c r="X35" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>Chyba</v>
+      </c>
+      <c r="Y35" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>ok</v>
+      </c>
+      <c r="Z35" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="36" ht="18.5" customHeight="1" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" s="9">
+        <v>25</v>
+      </c>
+      <c r="C36" s="10">
         <v>45732</v>
       </c>
-      <c r="D36" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="E36" s="10">
+      <c r="D36" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="E36" s="11">
         <v>0.2916666666678793</v>
       </c>
       <c r="F36" s="7">
@@ -2638,13 +3214,13 @@
         <v>1560</v>
       </c>
       <c r="M36" s="7"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="11">
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q36" s="11">
+      <c r="Q36" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -2652,256 +3228,336 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S36" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="T36" s="10">
+      <c r="S36" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="T36" s="11">
         <v>0.2916666666678793</v>
       </c>
       <c r="U36" s="7">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="37" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="W36" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Chyba</v>
+      </c>
+      <c r="X36" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>Chyba</v>
+      </c>
+      <c r="Y36" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>ok</v>
+      </c>
+      <c r="Z36" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="37" ht="18.5" customHeight="1" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37" s="9">
+        <v>20</v>
+      </c>
+      <c r="C37" s="10">
         <v>45733</v>
       </c>
-      <c r="D37" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="E37" s="10">
+      <c r="D37" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="E37" s="11">
         <v>0.7916666666678793</v>
       </c>
       <c r="F37" s="7">
-        <f t="shared" ref="F37:F40" si="7">IF(AND(OR(D37=E37,D37&gt;E37),(D37&gt;0)),24-MROUND((((D37*1440)-(E37*1440)))/60,0.5),MROUND(((E37*1440)-(D37*1440))/60,0.5))</f>
+        <f t="shared" ref="F37:F40" si="11">IF(AND(OR(D37=E37,D37&gt;E37),(D37&gt;0)),24-MROUND((((D37*1440)-(E37*1440)))/60,0.5),MROUND(((E37*1440)-(D37*1440))/60,0.5))</f>
         <v>12</v>
       </c>
       <c r="G37" s="7">
         <v>130</v>
       </c>
       <c r="H37" s="7">
-        <f t="shared" ref="H37:H40" si="8">SUM(F37*G37)</f>
+        <f t="shared" ref="H37:H40" si="12">SUM(F37*G37)</f>
         <v>1560</v>
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
       <c r="L37" s="7">
-        <f t="shared" ref="L37:L40" si="9">(H37+I37+J37)-K37</f>
+        <f t="shared" ref="L37:L40" si="13">(H37+I37+J37)-K37</f>
         <v>1560</v>
       </c>
       <c r="M37" s="7"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="11">
-        <f t="shared" ref="P37:P40" si="10">IFERROR(MROUND(N37,"0:30"),"0:00")</f>
-        <v>0</v>
-      </c>
-      <c r="Q37" s="11">
-        <f t="shared" ref="Q37:Q40" si="11">IFERROR(MROUND(O37,"0:30"),"0:00")</f>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="12">
+        <f t="shared" ref="P37:P40" si="14">IFERROR(MROUND(N37,"0:30"),"0:00")</f>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="12">
+        <f t="shared" ref="Q37:Q40" si="15">IFERROR(MROUND(O37,"0:30"),"0:00")</f>
         <v>0</v>
       </c>
       <c r="R37" s="7">
-        <f t="shared" ref="R37:R40" si="12">IF(AND(OR(N37=O37,N37&gt;O37),(N37&gt;0)),24-MROUND((((N37*1440)-(O37*1440)))/60,0.5),MROUND(((O37*1440)-(N37*1440))/60,0.5))</f>
-        <v>0</v>
-      </c>
-      <c r="S37" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="T37" s="10">
+        <f t="shared" ref="R37:R40" si="16">IF(AND(OR(N37=O37,N37&gt;O37),(N37&gt;0)),24-MROUND((((N37*1440)-(O37*1440)))/60,0.5),MROUND(((O37*1440)-(N37*1440))/60,0.5))</f>
+        <v>0</v>
+      </c>
+      <c r="S37" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="T37" s="11">
         <v>0.7916666666678793</v>
       </c>
       <c r="U37" s="7">
-        <f t="shared" ref="U37:U40" si="13">IF(AND(OR(S37=T37,S37&gt;T37),(S37&gt;0)),24-MROUND((((S37*1440)-(T37*1440)))/60,0.5),MROUND(((T37*1440)-(S37*1440))/60,0.5))</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
+        <f t="shared" ref="U37:U40" si="17">IF(AND(OR(S37=T37,S37&gt;T37),(S37&gt;0)),24-MROUND((((S37*1440)-(T37*1440)))/60,0.5),MROUND(((T37*1440)-(S37*1440))/60,0.5))</f>
+        <v>12</v>
+      </c>
+      <c r="W37" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Chyba</v>
+      </c>
+      <c r="X37" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>Chyba</v>
+      </c>
+      <c r="Y37" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>ok</v>
+      </c>
+      <c r="Z37" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="38" ht="18.5" customHeight="1" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" s="9">
+        <v>25</v>
+      </c>
+      <c r="C38" s="10">
         <v>45733</v>
       </c>
-      <c r="D38" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="E38" s="10">
+      <c r="D38" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="E38" s="11">
         <v>0.2916666666678793</v>
       </c>
       <c r="F38" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="G38" s="7">
         <v>130</v>
       </c>
       <c r="H38" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1560</v>
       </c>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
       <c r="L38" s="7">
+        <f t="shared" si="13"/>
+        <v>1560</v>
+      </c>
+      <c r="M38" s="7"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="12">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="12">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S38" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="T38" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="U38" s="7">
+        <f t="shared" si="17"/>
+        <v>12</v>
+      </c>
+      <c r="W38" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Chyba</v>
+      </c>
+      <c r="X38" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>Chyba</v>
+      </c>
+      <c r="Y38" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>1560</v>
-      </c>
-      <c r="M38" s="7"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="11">
+        <v>ok</v>
+      </c>
+      <c r="Z38" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Q38" s="11">
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="39" ht="18.5" customHeight="1" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B39" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="10">
+        <v>45734</v>
+      </c>
+      <c r="D39" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="E39" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="F39" s="7">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="R38" s="7">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="S38" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="T38" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="U38" s="7">
-        <f t="shared" si="13"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B39" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39" s="9">
-        <v>45734</v>
-      </c>
-      <c r="D39" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="E39" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="F39" s="7">
-        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="G39" s="7">
         <v>130</v>
       </c>
       <c r="H39" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1560</v>
       </c>
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
       <c r="L39" s="7">
+        <f t="shared" si="13"/>
+        <v>1560</v>
+      </c>
+      <c r="M39" s="7"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="12">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="12">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R39" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S39" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="T39" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="U39" s="7">
+        <f t="shared" si="17"/>
+        <v>12</v>
+      </c>
+      <c r="W39" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Chyba</v>
+      </c>
+      <c r="X39" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>Chyba</v>
+      </c>
+      <c r="Y39" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>1560</v>
-      </c>
-      <c r="M39" s="7"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="11">
+        <v>ok</v>
+      </c>
+      <c r="Z39" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Q39" s="11">
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="40" ht="18.5" customHeight="1" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B40" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="10">
+        <v>45734</v>
+      </c>
+      <c r="D40" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="E40" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="F40" s="7">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="R39" s="7">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="S39" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="T39" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="U39" s="7">
-        <f t="shared" si="13"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B40" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C40" s="9">
-        <v>45734</v>
-      </c>
-      <c r="D40" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="E40" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="F40" s="7">
-        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="G40" s="7">
         <v>130</v>
       </c>
       <c r="H40" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1560</v>
       </c>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
       <c r="L40" s="7">
+        <f t="shared" si="13"/>
+        <v>1560</v>
+      </c>
+      <c r="M40" s="7"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="12">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="12">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R40" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S40" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="T40" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="U40" s="7">
+        <f t="shared" si="17"/>
+        <v>12</v>
+      </c>
+      <c r="W40" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Chyba</v>
+      </c>
+      <c r="X40" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>Chyba</v>
+      </c>
+      <c r="Y40" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>1560</v>
-      </c>
-      <c r="M40" s="7"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="11">
+        <v>ok</v>
+      </c>
+      <c r="Z40" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Q40" s="11">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="R40" s="7">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="S40" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="T40" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="U40" s="7">
-        <f t="shared" si="13"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="41" ht="18.5" customHeight="1" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C41" s="9">
+        <v>23</v>
+      </c>
+      <c r="C41" s="10">
         <v>45735</v>
       </c>
-      <c r="D41" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="E41" s="10">
+      <c r="D41" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="E41" s="11">
         <v>0.7916666666678793</v>
       </c>
       <c r="F41" s="7">
@@ -2923,13 +3579,13 @@
         <v>1560</v>
       </c>
       <c r="M41" s="7"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="11">
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q41" s="11">
+      <c r="Q41" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -2937,28 +3593,44 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S41" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="T41" s="10">
+      <c r="S41" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="T41" s="11">
         <v>0.7916666666678793</v>
       </c>
       <c r="U41" s="7">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="42" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="W41" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Chyba</v>
+      </c>
+      <c r="X41" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>Chyba</v>
+      </c>
+      <c r="Y41" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>ok</v>
+      </c>
+      <c r="Z41" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="42" ht="18.5" customHeight="1" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B42" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C42" s="9">
+        <v>22</v>
+      </c>
+      <c r="C42" s="10">
         <v>45735</v>
       </c>
-      <c r="D42" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="E42" s="10">
+      <c r="D42" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="E42" s="11">
         <v>0.2916666666678793</v>
       </c>
       <c r="F42" s="7">
@@ -2980,13 +3652,13 @@
         <v>1560</v>
       </c>
       <c r="M42" s="7"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="11">
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q42" s="11">
+      <c r="Q42" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -2994,28 +3666,44 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S42" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="T42" s="10">
+      <c r="S42" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="T42" s="11">
         <v>0.2916666666678793</v>
       </c>
       <c r="U42" s="7">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="43" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="W42" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Chyba</v>
+      </c>
+      <c r="X42" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>Chyba</v>
+      </c>
+      <c r="Y42" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>ok</v>
+      </c>
+      <c r="Z42" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="43" ht="18.5" customHeight="1" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C43" s="9">
+        <v>23</v>
+      </c>
+      <c r="C43" s="10">
         <v>45736</v>
       </c>
-      <c r="D43" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="E43" s="10">
+      <c r="D43" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="E43" s="11">
         <v>0.7916666666678793</v>
       </c>
       <c r="F43" s="7">
@@ -3037,13 +3725,13 @@
         <v>1560</v>
       </c>
       <c r="M43" s="7"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="11">
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q43" s="11">
+      <c r="Q43" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3051,1332 +3739,1716 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S43" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="T43" s="10">
+      <c r="S43" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="T43" s="11">
         <v>0.7916666666678793</v>
       </c>
       <c r="U43" s="7">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="44" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="W43" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Chyba</v>
+      </c>
+      <c r="X43" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>Chyba</v>
+      </c>
+      <c r="Y43" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>ok</v>
+      </c>
+      <c r="Z43" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="44" ht="18.5" customHeight="1" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B44" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C44" s="9">
+        <v>25</v>
+      </c>
+      <c r="C44" s="10">
         <v>45736</v>
       </c>
-      <c r="D44" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="E44" s="10">
+      <c r="D44" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="E44" s="11">
         <v>0.2916666666678793</v>
       </c>
       <c r="F44" s="7">
-        <f t="shared" ref="F44:F62" si="14">IF(AND(OR(D44=E44,D44&gt;E44),(D44&gt;0)),24-MROUND((((D44*1440)-(E44*1440)))/60,0.5),MROUND(((E44*1440)-(D44*1440))/60,0.5))</f>
+        <f t="shared" ref="F44:F62" si="18">IF(AND(OR(D44=E44,D44&gt;E44),(D44&gt;0)),24-MROUND((((D44*1440)-(E44*1440)))/60,0.5),MROUND(((E44*1440)-(D44*1440))/60,0.5))</f>
         <v>12</v>
       </c>
       <c r="G44" s="7">
         <v>130</v>
       </c>
       <c r="H44" s="7">
-        <f t="shared" ref="H44:H62" si="15">SUM(F44*G44)</f>
+        <f t="shared" ref="H44:H62" si="19">SUM(F44*G44)</f>
         <v>1560</v>
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7">
-        <f t="shared" ref="L44:L62" si="16">(H44+I44+J44)-K44</f>
+        <f t="shared" ref="L44:L62" si="20">(H44+I44+J44)-K44</f>
         <v>1560</v>
       </c>
       <c r="M44" s="7"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="11">
-        <f t="shared" ref="P44:P62" si="17">IFERROR(MROUND(N44,"0:30"),"0:00")</f>
-        <v>0</v>
-      </c>
-      <c r="Q44" s="11">
-        <f t="shared" ref="Q44:Q62" si="18">IFERROR(MROUND(O44,"0:30"),"0:00")</f>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="12">
+        <f t="shared" ref="P44:P62" si="21">IFERROR(MROUND(N44,"0:30"),"0:00")</f>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="12">
+        <f t="shared" ref="Q44:Q62" si="22">IFERROR(MROUND(O44,"0:30"),"0:00")</f>
         <v>0</v>
       </c>
       <c r="R44" s="7">
-        <f t="shared" ref="R44:R62" si="19">IF(AND(OR(N44=O44,N44&gt;O44),(N44&gt;0)),24-MROUND((((N44*1440)-(O44*1440)))/60,0.5),MROUND(((O44*1440)-(N44*1440))/60,0.5))</f>
-        <v>0</v>
-      </c>
-      <c r="S44" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="T44" s="10">
+        <f t="shared" ref="R44:R62" si="23">IF(AND(OR(N44=O44,N44&gt;O44),(N44&gt;0)),24-MROUND((((N44*1440)-(O44*1440)))/60,0.5),MROUND(((O44*1440)-(N44*1440))/60,0.5))</f>
+        <v>0</v>
+      </c>
+      <c r="S44" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="T44" s="11">
         <v>0.2916666666678793</v>
       </c>
       <c r="U44" s="7">
-        <f t="shared" ref="U44:U62" si="20">IF(AND(OR(S44=T44,S44&gt;T44),(S44&gt;0)),24-MROUND((((S44*1440)-(T44*1440)))/60,0.5),MROUND(((T44*1440)-(S44*1440))/60,0.5))</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
+        <f t="shared" ref="U44:U62" si="24">IF(AND(OR(S44=T44,S44&gt;T44),(S44&gt;0)),24-MROUND((((S44*1440)-(T44*1440)))/60,0.5),MROUND(((T44*1440)-(S44*1440))/60,0.5))</f>
+        <v>12</v>
+      </c>
+      <c r="W44" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Chyba</v>
+      </c>
+      <c r="X44" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>Chyba</v>
+      </c>
+      <c r="Y44" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>ok</v>
+      </c>
+      <c r="Z44" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="45" ht="18.5" customHeight="1" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B45" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C45" s="9">
+        <v>22</v>
+      </c>
+      <c r="C45" s="10">
         <v>45737</v>
       </c>
-      <c r="D45" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="E45" s="10">
+      <c r="D45" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="E45" s="11">
         <v>0.7916666666678793</v>
       </c>
       <c r="F45" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>12</v>
       </c>
       <c r="G45" s="7">
         <v>130</v>
       </c>
       <c r="H45" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>1560</v>
       </c>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
       <c r="L45" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1560</v>
       </c>
       <c r="M45" s="7"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="11">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Q45" s="11">
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="12">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R45" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S45" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="T45" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="U45" s="7">
+        <f t="shared" si="24"/>
+        <v>12</v>
+      </c>
+      <c r="W45" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Chyba</v>
+      </c>
+      <c r="X45" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>Chyba</v>
+      </c>
+      <c r="Y45" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>ok</v>
+      </c>
+      <c r="Z45" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="46" ht="18.5" customHeight="1" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B46" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" s="10">
+        <v>45737</v>
+      </c>
+      <c r="D46" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="E46" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="F46" s="7">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="R45" s="7">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="S45" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="T45" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="U45" s="7">
-        <f t="shared" si="20"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B46" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C46" s="9">
-        <v>45737</v>
-      </c>
-      <c r="D46" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="E46" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="F46" s="7">
-        <f t="shared" si="14"/>
         <v>12</v>
       </c>
       <c r="G46" s="7">
         <v>130</v>
       </c>
       <c r="H46" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>1560</v>
       </c>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
       <c r="L46" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1560</v>
       </c>
       <c r="M46" s="7"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="10"/>
-      <c r="P46" s="11">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Q46" s="11">
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="12">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R46" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S46" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="T46" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="U46" s="7">
+        <f t="shared" si="24"/>
+        <v>12</v>
+      </c>
+      <c r="W46" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Chyba</v>
+      </c>
+      <c r="X46" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>Chyba</v>
+      </c>
+      <c r="Y46" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>ok</v>
+      </c>
+      <c r="Z46" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="47" ht="18.5" customHeight="1" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B47" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="10">
+        <v>45738</v>
+      </c>
+      <c r="D47" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="E47" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="F47" s="7">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="R46" s="7">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="S46" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="T46" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="U46" s="7">
-        <f t="shared" si="20"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B47" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C47" s="9">
-        <v>45738</v>
-      </c>
-      <c r="D47" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="E47" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="F47" s="7">
-        <f t="shared" si="14"/>
         <v>12</v>
       </c>
       <c r="G47" s="7">
         <v>130</v>
       </c>
       <c r="H47" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>1560</v>
       </c>
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
       <c r="L47" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1560</v>
       </c>
       <c r="M47" s="7"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="11">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Q47" s="11">
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="12">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R47" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S47" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="T47" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="U47" s="7">
+        <f t="shared" si="24"/>
+        <v>12</v>
+      </c>
+      <c r="W47" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Chyba</v>
+      </c>
+      <c r="X47" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>Chyba</v>
+      </c>
+      <c r="Y47" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>ok</v>
+      </c>
+      <c r="Z47" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="48" ht="18.5" customHeight="1" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B48" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="10">
+        <v>45738</v>
+      </c>
+      <c r="D48" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="E48" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="F48" s="7">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="R47" s="7">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="S47" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="T47" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="U47" s="7">
-        <f t="shared" si="20"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B48" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C48" s="9">
-        <v>45738</v>
-      </c>
-      <c r="D48" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="E48" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="F48" s="7">
-        <f t="shared" si="14"/>
         <v>12</v>
       </c>
       <c r="G48" s="7">
         <v>130</v>
       </c>
       <c r="H48" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>1560</v>
       </c>
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
       <c r="L48" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1560</v>
       </c>
       <c r="M48" s="7"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="11">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Q48" s="11">
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="12">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R48" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S48" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="T48" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="U48" s="7">
+        <f t="shared" si="24"/>
+        <v>12</v>
+      </c>
+      <c r="W48" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Chyba</v>
+      </c>
+      <c r="X48" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>Chyba</v>
+      </c>
+      <c r="Y48" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>ok</v>
+      </c>
+      <c r="Z48" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="49" ht="18.5" customHeight="1" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B49" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" s="10">
+        <v>45739</v>
+      </c>
+      <c r="D49" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="E49" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="F49" s="7">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="R48" s="7">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="S48" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="T48" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="U48" s="7">
-        <f t="shared" si="20"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B49" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C49" s="9">
-        <v>45739</v>
-      </c>
-      <c r="D49" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="E49" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="F49" s="7">
-        <f t="shared" si="14"/>
         <v>12</v>
       </c>
       <c r="G49" s="7">
         <v>130</v>
       </c>
       <c r="H49" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>1560</v>
       </c>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
       <c r="L49" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1560</v>
       </c>
       <c r="M49" s="7"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="11">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Q49" s="11">
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="12">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R49" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S49" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="T49" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="U49" s="7">
+        <f t="shared" si="24"/>
+        <v>12</v>
+      </c>
+      <c r="W49" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Chyba</v>
+      </c>
+      <c r="X49" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>Chyba</v>
+      </c>
+      <c r="Y49" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>ok</v>
+      </c>
+      <c r="Z49" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="50" ht="18.5" customHeight="1" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B50" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="10">
+        <v>45739</v>
+      </c>
+      <c r="D50" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="E50" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="F50" s="7">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="R49" s="7">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="S49" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="T49" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="U49" s="7">
-        <f t="shared" si="20"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B50" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C50" s="9">
-        <v>45739</v>
-      </c>
-      <c r="D50" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="E50" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="F50" s="7">
-        <f t="shared" si="14"/>
         <v>12</v>
       </c>
       <c r="G50" s="7">
         <v>130</v>
       </c>
       <c r="H50" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>1560</v>
       </c>
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
       <c r="L50" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1560</v>
       </c>
       <c r="M50" s="7"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="11">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Q50" s="11">
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q50" s="12">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R50" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S50" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="T50" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="U50" s="7">
+        <f t="shared" si="24"/>
+        <v>12</v>
+      </c>
+      <c r="W50" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Chyba</v>
+      </c>
+      <c r="X50" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>Chyba</v>
+      </c>
+      <c r="Y50" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>ok</v>
+      </c>
+      <c r="Z50" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="51" ht="18.5" customHeight="1" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B51" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" s="10">
+        <v>45740</v>
+      </c>
+      <c r="D51" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="E51" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="F51" s="7">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="R50" s="7">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="S50" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="T50" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="U50" s="7">
-        <f t="shared" si="20"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B51" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C51" s="9">
-        <v>45740</v>
-      </c>
-      <c r="D51" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="E51" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="F51" s="7">
-        <f t="shared" si="14"/>
         <v>12</v>
       </c>
       <c r="G51" s="7">
         <v>130</v>
       </c>
       <c r="H51" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>1560</v>
       </c>
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
       <c r="K51" s="7"/>
       <c r="L51" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1560</v>
       </c>
       <c r="M51" s="7"/>
-      <c r="N51" s="10"/>
-      <c r="O51" s="10"/>
-      <c r="P51" s="11">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Q51" s="11">
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q51" s="12">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R51" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S51" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="T51" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="U51" s="7">
+        <f t="shared" si="24"/>
+        <v>12</v>
+      </c>
+      <c r="W51" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Chyba</v>
+      </c>
+      <c r="X51" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>Chyba</v>
+      </c>
+      <c r="Y51" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>ok</v>
+      </c>
+      <c r="Z51" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="52" ht="18.5" customHeight="1" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B52" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" s="10">
+        <v>45740</v>
+      </c>
+      <c r="D52" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="E52" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="F52" s="7">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="R51" s="7">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="S51" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="T51" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="U51" s="7">
-        <f t="shared" si="20"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B52" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C52" s="9">
-        <v>45740</v>
-      </c>
-      <c r="D52" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="E52" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="F52" s="7">
-        <f t="shared" si="14"/>
         <v>12</v>
       </c>
       <c r="G52" s="7">
         <v>130</v>
       </c>
       <c r="H52" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>1560</v>
       </c>
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
       <c r="L52" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1560</v>
       </c>
       <c r="M52" s="7"/>
-      <c r="N52" s="10"/>
-      <c r="O52" s="10"/>
-      <c r="P52" s="11">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Q52" s="11">
-        <f t="shared" si="18"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q52" s="12">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="R52" s="7">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="S52" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="T52" s="10">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S52" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="T52" s="11">
         <v>0.2916666666678793</v>
       </c>
       <c r="U52" s="7">
-        <f t="shared" si="20"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
+        <f t="shared" si="24"/>
+        <v>12</v>
+      </c>
+      <c r="W52" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Chyba</v>
+      </c>
+      <c r="X52" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>Chyba</v>
+      </c>
+      <c r="Y52" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>ok</v>
+      </c>
+      <c r="Z52" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="53" ht="18.5" customHeight="1" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B53" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C53" s="9">
+        <v>20</v>
+      </c>
+      <c r="C53" s="10">
         <v>45741</v>
       </c>
-      <c r="D53" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="E53" s="10">
+      <c r="D53" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="E53" s="11">
         <v>0.7916666666678793</v>
       </c>
       <c r="F53" s="7">
-        <f t="shared" ref="F53:F60" si="21">IF(AND(OR(D53=E53,D53&gt;E53),(D53&gt;0)),24-MROUND((((D53*1440)-(E53*1440)))/60,0.5),MROUND(((E53*1440)-(D53*1440))/60,0.5))</f>
+        <f t="shared" ref="F53:F60" si="25">IF(AND(OR(D53=E53,D53&gt;E53),(D53&gt;0)),24-MROUND((((D53*1440)-(E53*1440)))/60,0.5),MROUND(((E53*1440)-(D53*1440))/60,0.5))</f>
         <v>12</v>
       </c>
       <c r="G53" s="7">
         <v>130</v>
       </c>
       <c r="H53" s="7">
-        <f t="shared" ref="H53:H60" si="22">SUM(F53*G53)</f>
+        <f t="shared" ref="H53:H60" si="26">SUM(F53*G53)</f>
         <v>1560</v>
       </c>
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
       <c r="L53" s="7">
-        <f t="shared" ref="L53:L60" si="23">(H53+I53+J53)-K53</f>
+        <f t="shared" ref="L53:L60" si="27">(H53+I53+J53)-K53</f>
         <v>1560</v>
       </c>
       <c r="M53" s="7"/>
-      <c r="N53" s="10"/>
-      <c r="O53" s="10"/>
-      <c r="P53" s="11">
-        <f t="shared" ref="P53:P60" si="24">IFERROR(MROUND(N53,"0:30"),"0:00")</f>
-        <v>0</v>
-      </c>
-      <c r="Q53" s="11">
-        <f t="shared" ref="Q53:Q60" si="25">IFERROR(MROUND(O53,"0:30"),"0:00")</f>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="12">
+        <f t="shared" ref="P53:P60" si="28">IFERROR(MROUND(N53,"0:30"),"0:00")</f>
+        <v>0</v>
+      </c>
+      <c r="Q53" s="12">
+        <f t="shared" ref="Q53:Q60" si="29">IFERROR(MROUND(O53,"0:30"),"0:00")</f>
         <v>0</v>
       </c>
       <c r="R53" s="7">
-        <f t="shared" ref="R53:R60" si="26">IF(AND(OR(N53=O53,N53&gt;O53),(N53&gt;0)),24-MROUND((((N53*1440)-(O53*1440)))/60,0.5),MROUND(((O53*1440)-(N53*1440))/60,0.5))</f>
-        <v>0</v>
-      </c>
-      <c r="S53" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="T53" s="10">
+        <f t="shared" ref="R53:R60" si="30">IF(AND(OR(N53=O53,N53&gt;O53),(N53&gt;0)),24-MROUND((((N53*1440)-(O53*1440)))/60,0.5),MROUND(((O53*1440)-(N53*1440))/60,0.5))</f>
+        <v>0</v>
+      </c>
+      <c r="S53" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="T53" s="11">
         <v>0.7916666666678793</v>
       </c>
       <c r="U53" s="7">
-        <f t="shared" ref="U53:U60" si="27">IF(AND(OR(S53=T53,S53&gt;T53),(S53&gt;0)),24-MROUND((((S53*1440)-(T53*1440)))/60,0.5),MROUND(((T53*1440)-(S53*1440))/60,0.5))</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
+        <f t="shared" ref="U53:U60" si="31">IF(AND(OR(S53=T53,S53&gt;T53),(S53&gt;0)),24-MROUND((((S53*1440)-(T53*1440)))/60,0.5),MROUND(((T53*1440)-(S53*1440))/60,0.5))</f>
+        <v>12</v>
+      </c>
+      <c r="W53" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Chyba</v>
+      </c>
+      <c r="X53" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>Chyba</v>
+      </c>
+      <c r="Y53" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>ok</v>
+      </c>
+      <c r="Z53" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="54" ht="18.5" customHeight="1" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B54" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C54" s="9">
+        <v>25</v>
+      </c>
+      <c r="C54" s="10">
         <v>45741</v>
       </c>
-      <c r="D54" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="E54" s="10">
+      <c r="D54" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="E54" s="11">
         <v>0.2916666666678793</v>
       </c>
       <c r="F54" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>12</v>
       </c>
       <c r="G54" s="7">
         <v>130</v>
       </c>
       <c r="H54" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1560</v>
       </c>
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
       <c r="L54" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1560</v>
       </c>
       <c r="M54" s="7"/>
-      <c r="N54" s="10"/>
-      <c r="O54" s="10"/>
-      <c r="P54" s="11">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="Q54" s="11">
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="12">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Q54" s="12">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="R54" s="7">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="S54" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="T54" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="U54" s="7">
+        <f t="shared" si="31"/>
+        <v>12</v>
+      </c>
+      <c r="W54" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Chyba</v>
+      </c>
+      <c r="X54" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>Chyba</v>
+      </c>
+      <c r="Y54" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>ok</v>
+      </c>
+      <c r="Z54" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="55" ht="18.5" customHeight="1" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B55" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" s="10">
+        <v>45742</v>
+      </c>
+      <c r="D55" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="E55" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="F55" s="7">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="R54" s="7">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="S54" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="T54" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="U54" s="7">
-        <f t="shared" si="27"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B55" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C55" s="9">
-        <v>45742</v>
-      </c>
-      <c r="D55" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="E55" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="F55" s="7">
-        <f t="shared" si="21"/>
         <v>12</v>
       </c>
       <c r="G55" s="7">
         <v>130</v>
       </c>
       <c r="H55" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1560</v>
       </c>
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
       <c r="L55" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1560</v>
       </c>
       <c r="M55" s="7"/>
-      <c r="N55" s="10"/>
-      <c r="O55" s="10"/>
-      <c r="P55" s="11">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="Q55" s="11">
+      <c r="N55" s="11"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="12">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Q55" s="12">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="R55" s="7">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="S55" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="T55" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="U55" s="7">
+        <f t="shared" si="31"/>
+        <v>12</v>
+      </c>
+      <c r="W55" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Chyba</v>
+      </c>
+      <c r="X55" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>Chyba</v>
+      </c>
+      <c r="Y55" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>ok</v>
+      </c>
+      <c r="Z55" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="56" ht="18.5" customHeight="1" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B56" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56" s="10">
+        <v>45742</v>
+      </c>
+      <c r="D56" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="E56" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="F56" s="7">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="R55" s="7">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="S55" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="T55" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="U55" s="7">
-        <f t="shared" si="27"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B56" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C56" s="9">
-        <v>45742</v>
-      </c>
-      <c r="D56" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="E56" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="F56" s="7">
-        <f t="shared" si="21"/>
         <v>12</v>
       </c>
       <c r="G56" s="7">
         <v>130</v>
       </c>
       <c r="H56" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1560</v>
       </c>
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
       <c r="K56" s="7"/>
       <c r="L56" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1560</v>
       </c>
       <c r="M56" s="7"/>
-      <c r="N56" s="10"/>
-      <c r="O56" s="10"/>
-      <c r="P56" s="11">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="Q56" s="11">
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="12">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Q56" s="12">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="R56" s="7">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="S56" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="T56" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="U56" s="7">
+        <f t="shared" si="31"/>
+        <v>12</v>
+      </c>
+      <c r="W56" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Chyba</v>
+      </c>
+      <c r="X56" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>Chyba</v>
+      </c>
+      <c r="Y56" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>ok</v>
+      </c>
+      <c r="Z56" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="57" ht="18.5" customHeight="1" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B57" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" s="10">
+        <v>45743</v>
+      </c>
+      <c r="D57" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="E57" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="F57" s="7">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="R56" s="7">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="S56" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="T56" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="U56" s="7">
-        <f t="shared" si="27"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B57" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C57" s="9">
-        <v>45743</v>
-      </c>
-      <c r="D57" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="E57" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="F57" s="7">
-        <f t="shared" si="21"/>
         <v>12</v>
       </c>
       <c r="G57" s="7">
         <v>130</v>
       </c>
       <c r="H57" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1560</v>
       </c>
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
       <c r="K57" s="7"/>
       <c r="L57" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1560</v>
       </c>
       <c r="M57" s="7"/>
-      <c r="N57" s="10"/>
-      <c r="O57" s="10"/>
-      <c r="P57" s="11">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="Q57" s="11">
+      <c r="N57" s="11"/>
+      <c r="O57" s="11"/>
+      <c r="P57" s="12">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Q57" s="12">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="R57" s="7">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="S57" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="T57" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="U57" s="7">
+        <f t="shared" si="31"/>
+        <v>12</v>
+      </c>
+      <c r="W57" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Chyba</v>
+      </c>
+      <c r="X57" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>Chyba</v>
+      </c>
+      <c r="Y57" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>ok</v>
+      </c>
+      <c r="Z57" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="58" ht="18.5" customHeight="1" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B58" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58" s="10">
+        <v>45743</v>
+      </c>
+      <c r="D58" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="E58" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="F58" s="7">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="R57" s="7">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="S57" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="T57" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="U57" s="7">
-        <f t="shared" si="27"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B58" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C58" s="9">
-        <v>45743</v>
-      </c>
-      <c r="D58" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="E58" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="F58" s="7">
-        <f t="shared" si="21"/>
         <v>12</v>
       </c>
       <c r="G58" s="7">
         <v>130</v>
       </c>
       <c r="H58" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1560</v>
       </c>
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
       <c r="K58" s="7"/>
       <c r="L58" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1560</v>
       </c>
       <c r="M58" s="7"/>
-      <c r="N58" s="10"/>
-      <c r="O58" s="10"/>
-      <c r="P58" s="11">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="Q58" s="11">
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="12">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Q58" s="12">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="R58" s="7">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="S58" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="T58" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="U58" s="7">
+        <f t="shared" si="31"/>
+        <v>12</v>
+      </c>
+      <c r="W58" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Chyba</v>
+      </c>
+      <c r="X58" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>Chyba</v>
+      </c>
+      <c r="Y58" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>ok</v>
+      </c>
+      <c r="Z58" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="59" ht="18.5" customHeight="1" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B59" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" s="10">
+        <v>45744</v>
+      </c>
+      <c r="D59" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="E59" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="F59" s="7">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="R58" s="7">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="S58" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="T58" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="U58" s="7">
-        <f t="shared" si="27"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B59" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C59" s="9">
-        <v>45744</v>
-      </c>
-      <c r="D59" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="E59" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="F59" s="7">
-        <f t="shared" si="21"/>
         <v>12</v>
       </c>
       <c r="G59" s="7">
         <v>130</v>
       </c>
       <c r="H59" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1560</v>
       </c>
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
       <c r="L59" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1560</v>
       </c>
       <c r="M59" s="7"/>
-      <c r="N59" s="10"/>
-      <c r="O59" s="10"/>
-      <c r="P59" s="11">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="Q59" s="11">
+      <c r="N59" s="11"/>
+      <c r="O59" s="11"/>
+      <c r="P59" s="12">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Q59" s="12">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="R59" s="7">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="S59" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="T59" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="U59" s="7">
+        <f t="shared" si="31"/>
+        <v>12</v>
+      </c>
+      <c r="W59" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Chyba</v>
+      </c>
+      <c r="X59" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>Chyba</v>
+      </c>
+      <c r="Y59" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>ok</v>
+      </c>
+      <c r="Z59" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="60" ht="18.5" customHeight="1" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B60" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" s="10">
+        <v>45744</v>
+      </c>
+      <c r="D60" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="E60" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="F60" s="7">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="R59" s="7">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="S59" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="T59" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="U59" s="7">
-        <f t="shared" si="27"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B60" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C60" s="9">
-        <v>45744</v>
-      </c>
-      <c r="D60" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="E60" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="F60" s="7">
-        <f t="shared" si="21"/>
         <v>12</v>
       </c>
       <c r="G60" s="7">
         <v>130</v>
       </c>
       <c r="H60" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1560</v>
       </c>
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
       <c r="K60" s="7"/>
       <c r="L60" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1560</v>
       </c>
       <c r="M60" s="7"/>
-      <c r="N60" s="10"/>
-      <c r="O60" s="10"/>
-      <c r="P60" s="11">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="Q60" s="11">
-        <f t="shared" si="25"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="12">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Q60" s="12">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="R60" s="7">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="S60" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="T60" s="10">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="S60" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="T60" s="11">
         <v>0.2916666666678793</v>
       </c>
       <c r="U60" s="7">
-        <f t="shared" si="27"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
+        <f t="shared" si="31"/>
+        <v>12</v>
+      </c>
+      <c r="W60" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Chyba</v>
+      </c>
+      <c r="X60" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>Chyba</v>
+      </c>
+      <c r="Y60" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>ok</v>
+      </c>
+      <c r="Z60" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="61" ht="18.5" customHeight="1" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B61" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C61" s="9">
+        <v>23</v>
+      </c>
+      <c r="C61" s="10">
         <v>45745</v>
       </c>
-      <c r="D61" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="E61" s="10">
+      <c r="D61" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="E61" s="11">
         <v>0.7916666666678793</v>
       </c>
       <c r="F61" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>12</v>
       </c>
       <c r="G61" s="7">
         <v>130</v>
       </c>
       <c r="H61" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>1560</v>
       </c>
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
       <c r="K61" s="7"/>
       <c r="L61" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1560</v>
       </c>
       <c r="M61" s="7"/>
-      <c r="N61" s="10"/>
-      <c r="O61" s="10"/>
-      <c r="P61" s="11">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Q61" s="11">
+      <c r="N61" s="11"/>
+      <c r="O61" s="11"/>
+      <c r="P61" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q61" s="12">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R61" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S61" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="T61" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="U61" s="7">
+        <f t="shared" si="24"/>
+        <v>12</v>
+      </c>
+      <c r="W61" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Chyba</v>
+      </c>
+      <c r="X61" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>Chyba</v>
+      </c>
+      <c r="Y61" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>ok</v>
+      </c>
+      <c r="Z61" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="62" ht="18.5" customHeight="1" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B62" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62" s="10">
+        <v>45745</v>
+      </c>
+      <c r="D62" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="E62" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="F62" s="7">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="R61" s="7">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="S61" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="T61" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="U61" s="7">
-        <f t="shared" si="20"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B62" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C62" s="9">
-        <v>45745</v>
-      </c>
-      <c r="D62" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="E62" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="F62" s="7">
-        <f t="shared" si="14"/>
         <v>12</v>
       </c>
       <c r="G62" s="7">
         <v>130</v>
       </c>
       <c r="H62" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>1560</v>
       </c>
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
       <c r="K62" s="7"/>
       <c r="L62" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1560</v>
       </c>
       <c r="M62" s="7"/>
-      <c r="N62" s="10"/>
-      <c r="O62" s="10"/>
-      <c r="P62" s="11">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Q62" s="11">
-        <f t="shared" si="18"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="11"/>
+      <c r="P62" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q62" s="12">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="R62" s="7">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="S62" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="T62" s="10">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S62" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="T62" s="11">
         <v>0.2916666666678793</v>
       </c>
       <c r="U62" s="7">
-        <f t="shared" si="20"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
+        <f t="shared" si="24"/>
+        <v>12</v>
+      </c>
+      <c r="W62" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Chyba</v>
+      </c>
+      <c r="X62" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>Chyba</v>
+      </c>
+      <c r="Y62" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>ok</v>
+      </c>
+      <c r="Z62" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="63" ht="18.5" customHeight="1" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B63" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C63" s="9">
+        <v>20</v>
+      </c>
+      <c r="C63" s="10">
         <v>45746</v>
       </c>
-      <c r="D63" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="E63" s="10">
+      <c r="D63" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="E63" s="11">
         <v>0.7916666666678793</v>
       </c>
       <c r="F63" s="7">
-        <f t="shared" ref="F63:F66" si="28">IF(AND(OR(D63=E63,D63&gt;E63),(D63&gt;0)),24-MROUND((((D63*1440)-(E63*1440)))/60,0.5),MROUND(((E63*1440)-(D63*1440))/60,0.5))</f>
+        <f t="shared" ref="F63:F66" si="32">IF(AND(OR(D63=E63,D63&gt;E63),(D63&gt;0)),24-MROUND((((D63*1440)-(E63*1440)))/60,0.5),MROUND(((E63*1440)-(D63*1440))/60,0.5))</f>
         <v>12</v>
       </c>
       <c r="G63" s="7">
         <v>130</v>
       </c>
       <c r="H63" s="7">
-        <f t="shared" ref="H63:H66" si="29">SUM(F63*G63)</f>
+        <f t="shared" ref="H63:H66" si="33">SUM(F63*G63)</f>
         <v>1560</v>
       </c>
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
       <c r="K63" s="7"/>
       <c r="L63" s="7">
-        <f t="shared" ref="L63:L66" si="30">(H63+I63+J63)-K63</f>
+        <f t="shared" ref="L63:L66" si="34">(H63+I63+J63)-K63</f>
         <v>1560</v>
       </c>
       <c r="M63" s="7"/>
-      <c r="N63" s="10"/>
-      <c r="O63" s="10"/>
-      <c r="P63" s="11">
-        <f t="shared" ref="P63:P66" si="31">IFERROR(MROUND(N63,"0:30"),"0:00")</f>
-        <v>0</v>
-      </c>
-      <c r="Q63" s="11">
-        <f t="shared" ref="Q63:Q66" si="32">IFERROR(MROUND(O63,"0:30"),"0:00")</f>
+      <c r="N63" s="11"/>
+      <c r="O63" s="11"/>
+      <c r="P63" s="12">
+        <f t="shared" ref="P63:P66" si="35">IFERROR(MROUND(N63,"0:30"),"0:00")</f>
+        <v>0</v>
+      </c>
+      <c r="Q63" s="12">
+        <f t="shared" ref="Q63:Q66" si="36">IFERROR(MROUND(O63,"0:30"),"0:00")</f>
         <v>0</v>
       </c>
       <c r="R63" s="7">
-        <f t="shared" ref="R63:R66" si="33">IF(AND(OR(N63=O63,N63&gt;O63),(N63&gt;0)),24-MROUND((((N63*1440)-(O63*1440)))/60,0.5),MROUND(((O63*1440)-(N63*1440))/60,0.5))</f>
-        <v>0</v>
-      </c>
-      <c r="S63" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="T63" s="10">
+        <f t="shared" ref="R63:R66" si="37">IF(AND(OR(N63=O63,N63&gt;O63),(N63&gt;0)),24-MROUND((((N63*1440)-(O63*1440)))/60,0.5),MROUND(((O63*1440)-(N63*1440))/60,0.5))</f>
+        <v>0</v>
+      </c>
+      <c r="S63" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="T63" s="11">
         <v>0.7916666666678793</v>
       </c>
       <c r="U63" s="7">
-        <f t="shared" ref="U63:U66" si="34">IF(AND(OR(S63=T63,S63&gt;T63),(S63&gt;0)),24-MROUND((((S63*1440)-(T63*1440)))/60,0.5),MROUND(((T63*1440)-(S63*1440))/60,0.5))</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
+        <f t="shared" ref="U63:U66" si="38">IF(AND(OR(S63=T63,S63&gt;T63),(S63&gt;0)),24-MROUND((((S63*1440)-(T63*1440)))/60,0.5),MROUND(((T63*1440)-(S63*1440))/60,0.5))</f>
+        <v>12</v>
+      </c>
+      <c r="W63" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Chyba</v>
+      </c>
+      <c r="X63" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>Chyba</v>
+      </c>
+      <c r="Y63" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>ok</v>
+      </c>
+      <c r="Z63" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="64" ht="18.5" customHeight="1" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B64" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C64" s="9">
+        <v>25</v>
+      </c>
+      <c r="C64" s="10">
         <v>45746</v>
       </c>
-      <c r="D64" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="E64" s="10">
+      <c r="D64" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="E64" s="11">
         <v>0.2916666666678793</v>
       </c>
       <c r="F64" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>12</v>
       </c>
       <c r="G64" s="7">
         <v>130</v>
       </c>
       <c r="H64" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>1560</v>
       </c>
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
       <c r="K64" s="7"/>
       <c r="L64" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1560</v>
       </c>
       <c r="M64" s="7"/>
-      <c r="N64" s="10"/>
-      <c r="O64" s="10"/>
-      <c r="P64" s="11">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="Q64" s="11">
+      <c r="N64" s="11"/>
+      <c r="O64" s="11"/>
+      <c r="P64" s="12">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="Q64" s="12">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="R64" s="7">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="S64" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="T64" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="U64" s="7">
+        <f t="shared" si="38"/>
+        <v>12</v>
+      </c>
+      <c r="W64" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Chyba</v>
+      </c>
+      <c r="X64" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>Chyba</v>
+      </c>
+      <c r="Y64" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>ok</v>
+      </c>
+      <c r="Z64" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="65" ht="18.5" customHeight="1" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B65" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C65" s="10">
+        <v>45747</v>
+      </c>
+      <c r="D65" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="E65" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="F65" s="7">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="R64" s="7">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="S64" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="T64" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="U64" s="7">
-        <f t="shared" si="34"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B65" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C65" s="9">
-        <v>45747</v>
-      </c>
-      <c r="D65" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="E65" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="F65" s="7">
-        <f t="shared" si="28"/>
         <v>12</v>
       </c>
       <c r="G65" s="7">
         <v>130</v>
       </c>
       <c r="H65" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>1560</v>
       </c>
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
       <c r="L65" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1560</v>
       </c>
       <c r="M65" s="7"/>
-      <c r="N65" s="10"/>
-      <c r="O65" s="10"/>
-      <c r="P65" s="11">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="Q65" s="11">
+      <c r="N65" s="11"/>
+      <c r="O65" s="11"/>
+      <c r="P65" s="12">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="Q65" s="12">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="R65" s="7">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="S65" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="T65" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="U65" s="7">
+        <f t="shared" si="38"/>
+        <v>12</v>
+      </c>
+      <c r="W65" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Chyba</v>
+      </c>
+      <c r="X65" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>Chyba</v>
+      </c>
+      <c r="Y65" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>ok</v>
+      </c>
+      <c r="Z65" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="66" ht="18.5" customHeight="1" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B66" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66" s="10">
+        <v>45747</v>
+      </c>
+      <c r="D66" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="E66" s="11">
+        <v>0.2916666666678793</v>
+      </c>
+      <c r="F66" s="7">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="R65" s="7">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="S65" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="T65" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="U65" s="7">
-        <f t="shared" si="34"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" ht="18.5" customHeight="1" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B66" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C66" s="9">
-        <v>45747</v>
-      </c>
-      <c r="D66" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="E66" s="10">
-        <v>0.2916666666678793</v>
-      </c>
-      <c r="F66" s="7">
-        <f t="shared" si="28"/>
         <v>12</v>
       </c>
       <c r="G66" s="7">
         <v>130</v>
       </c>
       <c r="H66" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>1560</v>
       </c>
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
       <c r="K66" s="7"/>
       <c r="L66" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1560</v>
       </c>
       <c r="M66" s="7"/>
-      <c r="N66" s="10"/>
-      <c r="O66" s="10"/>
-      <c r="P66" s="11">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="Q66" s="11">
-        <f t="shared" si="32"/>
+      <c r="N66" s="11"/>
+      <c r="O66" s="11"/>
+      <c r="P66" s="12">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="Q66" s="12">
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="R66" s="7">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="S66" s="10">
-        <v>0.7916666666678793</v>
-      </c>
-      <c r="T66" s="10">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="S66" s="11">
+        <v>0.7916666666678793</v>
+      </c>
+      <c r="T66" s="11">
         <v>0.2916666666678793</v>
       </c>
       <c r="U66" s="7">
-        <f t="shared" si="34"/>
-        <v>12</v>
+        <f t="shared" si="38"/>
+        <v>12</v>
+      </c>
+      <c r="W66" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Chyba</v>
+      </c>
+      <c r="X66" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>Chyba</v>
+      </c>
+      <c r="Y66" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>ok</v>
+      </c>
+      <c r="Z66" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>ok</v>
       </c>
     </row>
     <row r="67" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C67" s="2"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
       <c r="F67" s="7">
         <f>SUM(F5:F66)</f>
         <v>744</v>
@@ -4392,215 +5464,217 @@
     </row>
     <row r="68" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C68" s="2"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
     </row>
     <row r="69" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C69" s="2"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
     </row>
     <row r="70" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C70" s="2"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
     </row>
     <row r="71" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C71" s="2"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
     </row>
     <row r="72" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C72" s="2"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
     </row>
     <row r="73" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C73" s="2"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
     </row>
     <row r="74" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C74" s="2"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
     </row>
     <row r="75" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C75" s="2"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
     </row>
     <row r="76" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C76" s="2"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
     </row>
     <row r="77" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C77" s="2"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
     </row>
     <row r="78" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C78" s="2"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
     </row>
     <row r="79" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C79" s="2"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
     </row>
     <row r="80" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C80" s="2"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="12"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
     </row>
     <row r="81" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C81" s="2"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
     </row>
     <row r="82" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C82" s="2"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
     </row>
     <row r="83" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C83" s="2"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="12"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
     </row>
     <row r="84" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C84" s="2"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="12"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
     </row>
     <row r="85" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C85" s="2"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="12"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
     </row>
     <row r="86" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C86" s="2"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="12"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
     </row>
     <row r="87" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C87" s="2"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="12"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
     </row>
     <row r="88" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C88" s="2"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="12"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
     </row>
     <row r="89" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C89" s="2"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="12"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
     </row>
     <row r="90" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C90" s="2"/>
-      <c r="D90" s="12"/>
-      <c r="E90" s="12"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
     </row>
     <row r="91" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C91" s="2"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="12"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13"/>
     </row>
     <row r="92" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C92" s="2"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="12"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13"/>
     </row>
     <row r="93" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C93" s="2"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="12"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
     </row>
     <row r="94" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C94" s="2"/>
-      <c r="D94" s="12"/>
-      <c r="E94" s="12"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13"/>
     </row>
     <row r="95" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C95" s="2"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="12"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="13"/>
     </row>
     <row r="96" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C96" s="2"/>
-      <c r="D96" s="12"/>
-      <c r="E96" s="12"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="13"/>
     </row>
     <row r="97" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C97" s="2"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="12"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="13"/>
     </row>
     <row r="98" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C98" s="2"/>
-      <c r="D98" s="12"/>
-      <c r="E98" s="12"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13"/>
     </row>
     <row r="99" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C99" s="2"/>
-      <c r="D99" s="12"/>
-      <c r="E99" s="12"/>
+      <c r="D99" s="13"/>
+      <c r="E99" s="13"/>
     </row>
     <row r="100" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C100" s="2"/>
-      <c r="D100" s="12"/>
-      <c r="E100" s="12"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="13"/>
     </row>
     <row r="101" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C101" s="2"/>
-      <c r="D101" s="12"/>
-      <c r="E101" s="12"/>
+      <c r="D101" s="13"/>
+      <c r="E101" s="13"/>
     </row>
     <row r="102" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C102" s="2"/>
-      <c r="D102" s="12"/>
-      <c r="E102" s="12"/>
+      <c r="D102" s="13"/>
+      <c r="E102" s="13"/>
     </row>
     <row r="103" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C103" s="2"/>
-      <c r="D103" s="12"/>
-      <c r="E103" s="12"/>
+      <c r="D103" s="13"/>
+      <c r="E103" s="13"/>
     </row>
     <row r="104" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C104" s="2"/>
-      <c r="D104" s="12"/>
-      <c r="E104" s="12"/>
+      <c r="D104" s="13"/>
+      <c r="E104" s="13"/>
     </row>
     <row r="105" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C105" s="2"/>
-      <c r="D105" s="12"/>
-      <c r="E105" s="12"/>
+      <c r="D105" s="13"/>
+      <c r="E105" s="13"/>
     </row>
     <row r="106" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C106" s="2"/>
-      <c r="D106" s="12"/>
-      <c r="E106" s="12"/>
+      <c r="D106" s="13"/>
+      <c r="E106" s="13"/>
     </row>
     <row r="107" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C107" s="2"/>
-      <c r="D107" s="12"/>
-      <c r="E107" s="12"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="13"/>
     </row>
     <row r="108" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C108" s="2"/>
-      <c r="D108" s="12"/>
-      <c r="E108" s="12"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="B3:M3"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:U3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:Z3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" scale="62" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
@@ -4609,7 +5683,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
@@ -4623,829 +5697,1081 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="13">
+        <v>20</v>
+      </c>
+      <c r="D6" s="14">
         <v>0.2982870370360615</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="13">
+        <v>21</v>
+      </c>
+      <c r="D7" s="14">
         <v>0.2990856481483206</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="13">
+        <v>21</v>
+      </c>
+      <c r="D8" s="14">
         <v>0.7902893518512428</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="13">
+        <v>20</v>
+      </c>
+      <c r="D9" s="14">
         <v>0.7944560185169394</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="13">
+        <v>20</v>
+      </c>
+      <c r="D10" s="14">
         <v>0.2909143518518249</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="13">
+        <v>21</v>
+      </c>
+      <c r="D11" s="14">
         <v>0.29289351851912215</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="13">
+        <v>22</v>
+      </c>
+      <c r="D12" s="14">
         <v>0.7898842592585424</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="13">
+        <v>20</v>
+      </c>
+      <c r="D13" s="14">
         <v>0.7905671296284709</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="13">
+        <v>22</v>
+      </c>
+      <c r="D14" s="14">
         <v>0.2856481481467199</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="13">
+        <v>21</v>
+      </c>
+      <c r="D15" s="14">
         <v>0.7882175925915362</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="13">
+        <v>20</v>
+      </c>
+      <c r="D16" s="14">
         <v>0.29053240740904585</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="13">
+        <v>22</v>
+      </c>
+      <c r="D17" s="14">
         <v>0.7867361111093487</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="13">
+        <v>20</v>
+      </c>
+      <c r="D18" s="14">
         <v>0.7991203703713836</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="13">
+        <v>22</v>
+      </c>
+      <c r="D19" s="14">
         <v>0.2790625000016007</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="13">
+        <v>20</v>
+      </c>
+      <c r="D20" s="14">
         <v>0.2834259259252576</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="13">
+        <v>22</v>
+      </c>
+      <c r="D21" s="14">
         <v>0.7873263888905058</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="13">
+        <v>20</v>
+      </c>
+      <c r="D22" s="14">
         <v>0.7951273148137261</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="13">
+        <v>22</v>
+      </c>
+      <c r="D23" s="14">
         <v>0.2850231481497758</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="13">
+        <v>24</v>
+      </c>
+      <c r="D24" s="14">
         <v>0.7717245370367891</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="13">
+        <v>24</v>
+      </c>
+      <c r="D25" s="14">
         <v>0.28003472222189885</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="13">
+        <v>20</v>
+      </c>
+      <c r="D26" s="14">
         <v>0.28171296296204673</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="13">
+        <v>24</v>
+      </c>
+      <c r="D27" s="14">
         <v>0.7778703703697829</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="13">
+        <v>20</v>
+      </c>
+      <c r="D28" s="14">
         <v>0.8099305555551837</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="13">
+        <v>24</v>
+      </c>
+      <c r="D29" s="14">
         <v>0.2868865740747424</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" s="13">
+        <v>24</v>
+      </c>
+      <c r="D30" s="14">
         <v>0.2870254629633564</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="13">
+        <v>20</v>
+      </c>
+      <c r="D31" s="14">
         <v>0.2870949074058444</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
-      </c>
-      <c r="D32" s="13">
+        <v>60</v>
+      </c>
+      <c r="D32" s="14">
         <v>0.7368287037024857</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" s="13">
+        <v>20</v>
+      </c>
+      <c r="D33" s="14">
         <v>0.76813657407547</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C34" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="13">
+        <v>20</v>
+      </c>
+      <c r="D34" s="14">
         <v>0.286238425924239</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C35" t="s">
-        <v>59</v>
-      </c>
-      <c r="D35" s="13">
+        <v>60</v>
+      </c>
+      <c r="D35" s="14">
         <v>0.31763888888963265</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C36" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="13">
+        <v>22</v>
+      </c>
+      <c r="D36" s="14">
         <v>0.7913078703713836</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C37" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="13">
+        <v>20</v>
+      </c>
+      <c r="D37" s="14">
         <v>0.7992361111100763</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C38" t="s">
-        <v>21</v>
-      </c>
-      <c r="D38" s="13">
+        <v>22</v>
+      </c>
+      <c r="D38" s="14">
         <v>0.2858564814814599</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B39" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C39" t="s">
-        <v>22</v>
-      </c>
-      <c r="D39" s="13">
+        <v>23</v>
+      </c>
+      <c r="D39" s="14">
         <v>0.2887384259265673</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C40" t="s">
-        <v>59</v>
-      </c>
-      <c r="D40" s="13">
+        <v>60</v>
+      </c>
+      <c r="D40" s="14">
         <v>0.7706944444435067</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B41" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C41" t="s">
-        <v>22</v>
-      </c>
-      <c r="D41" s="13">
+        <v>23</v>
+      </c>
+      <c r="D41" s="14">
         <v>0.770787037035916</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B42" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C42" t="s">
-        <v>70</v>
-      </c>
-      <c r="D42" s="13">
+        <v>71</v>
+      </c>
+      <c r="D42" s="14">
         <v>0.9332638888881775</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B43" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D43" s="13">
+        <v>23</v>
+      </c>
+      <c r="D43" s="14">
         <v>0.28428240740686306</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B44" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C44" t="s">
-        <v>59</v>
-      </c>
-      <c r="D44" s="13">
+        <v>60</v>
+      </c>
+      <c r="D44" s="14">
         <v>0.29216435185298906</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B45" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C45" t="s">
-        <v>22</v>
-      </c>
-      <c r="D45" s="13">
+        <v>23</v>
+      </c>
+      <c r="D45" s="14">
         <v>0.7859953703700739</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B46" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C46" t="s">
-        <v>21</v>
-      </c>
-      <c r="D46" s="13">
+        <v>22</v>
+      </c>
+      <c r="D46" s="14">
         <v>0.7962037037032133</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D47" s="15">
+      <c r="A47" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" s="16">
         <v>0.28350694444444446</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48" s="15">
+      <c r="A48" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="16">
         <v>0.28541666666666665</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D49" s="15">
+      <c r="A49" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" s="16">
         <v>0.7884259259259259</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D50" s="15">
+      <c r="A50" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="16">
         <v>0.7989699074074074</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D51" s="15">
+      <c r="A51" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D51" s="16">
         <v>0.29074074074074074</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C52" s="14" t="s">
+      <c r="A52" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" s="16">
+        <v>0.29083333333333333</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C53" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D52" s="15">
-        <v>0.29083333333333333</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C53" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D53" s="15">
+      <c r="D53" s="16">
         <v>0.7850810185185185</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C54" s="14" t="s">
+      <c r="A54" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" s="16">
+        <v>0.789537037037037</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C55" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D54" s="15">
-        <v>0.789537037037037</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C55" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D55" s="15">
+      <c r="D55" s="16">
         <v>0.2828472222222222</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B56" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C56" s="14" t="s">
+      <c r="A56" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" s="16">
+        <v>0.2829398148148148</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D57" s="16">
+        <v>0.7862268518518518</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" s="16">
+        <v>0.7864236111111111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D59" s="16">
+        <v>0.7865162037037037</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60" s="16">
+        <v>0.28681712962962963</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D61" s="16">
+        <v>0.29252314814814817</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D62" s="16">
+        <v>0.7854398148148148</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D63" s="16">
+        <v>0.2818171296296296</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D64" s="16">
+        <v>0.2862268518518518</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D65" s="16">
+        <v>0.7858333333333333</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66" s="16">
+        <v>0.7905555555555556</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D67" s="16">
+        <v>0.2865509259259259</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D68" s="16">
+        <v>0.2868634259259259</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D69" s="16">
+        <v>0.7821064814814814</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70" s="16">
+        <v>0.7888541666666666</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D71" s="16">
+        <v>0.2902893518518519</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D72" s="16">
+        <v>0.2939814814814815</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C73" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D56" s="15">
-        <v>0.2829398148148148</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B57" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C57" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D57" s="15">
-        <v>0.7862268518518518</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C58" s="14" t="s">
+      <c r="D73" s="16">
+        <v>0.7882754629629629</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D74" s="16">
+        <v>0.790787037037037</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D75" s="16">
+        <v>0.28734953703703703</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C76" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D58" s="15">
-        <v>0.7864236111111111</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C59" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D59" s="15">
-        <v>0.7865162037037037</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C60" s="14" t="s">
+      <c r="D76" s="16">
+        <v>0.28756944444444443</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C77" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="15">
-        <v>0.28681712962962963</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B61" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C61" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D61" s="15">
-        <v>0.29252314814814817</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B62" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C62" s="14" t="s">
+      <c r="D77" s="16">
+        <v>0.7843518518518519</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C78" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D62" s="15">
-        <v>0.7854398148148148</v>
+      <c r="D78" s="16">
+        <v>0.7848032407407407</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D79" s="16">
+        <v>0.2851388888888889</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B80" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D80" s="16">
+        <v>0.3157060185185185</v>
       </c>
     </row>
   </sheetData>
